--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H2">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I2">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J2">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01742633333333333</v>
+        <v>0.5613136666666666</v>
       </c>
       <c r="N2">
-        <v>0.052279</v>
+        <v>1.683941</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3969860536081968</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3969860536081969</v>
       </c>
       <c r="Q2">
-        <v>0.07447707001444444</v>
+        <v>2.836034494265</v>
       </c>
       <c r="R2">
-        <v>0.6702936301300001</v>
+        <v>25.524310448385</v>
       </c>
       <c r="S2">
-        <v>0.7470073608494167</v>
+        <v>0.3001211172317022</v>
       </c>
       <c r="T2">
-        <v>0.7470073608494168</v>
+        <v>0.3001211172317023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.833098</v>
+        <v>5.052495</v>
       </c>
       <c r="H3">
-        <v>2.499294</v>
+        <v>15.157485</v>
       </c>
       <c r="I3">
-        <v>0.145614427591125</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J3">
-        <v>0.145614427591125</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01742633333333333</v>
+        <v>0.8526243333333333</v>
       </c>
       <c r="N3">
-        <v>0.052279</v>
+        <v>2.557873</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6030139463918032</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6030139463918032</v>
       </c>
       <c r="Q3">
-        <v>0.01451784344733333</v>
+        <v>4.307880181045</v>
       </c>
       <c r="R3">
-        <v>0.130660591026</v>
+        <v>38.770921629405</v>
       </c>
       <c r="S3">
-        <v>0.145614427591125</v>
+        <v>0.455878028088161</v>
       </c>
       <c r="T3">
-        <v>0.145614427591125</v>
+        <v>0.455878028088161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1484293333333333</v>
+        <v>0.833098</v>
       </c>
       <c r="H4">
-        <v>0.445288</v>
+        <v>2.499294</v>
       </c>
       <c r="I4">
-        <v>0.02594346932901727</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J4">
-        <v>0.02594346932901727</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01742633333333333</v>
+        <v>0.5613136666666666</v>
       </c>
       <c r="N4">
-        <v>0.052279</v>
+        <v>1.683941</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3969860536081968</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3969860536081969</v>
       </c>
       <c r="Q4">
-        <v>0.002586579039111111</v>
+        <v>0.4676292930726666</v>
       </c>
       <c r="R4">
-        <v>0.023279211352</v>
+        <v>4.208663637653999</v>
       </c>
       <c r="S4">
-        <v>0.02594346932901727</v>
+        <v>0.04948650172310842</v>
       </c>
       <c r="T4">
-        <v>0.02594346932901727</v>
+        <v>0.04948650172310842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3942563333333333</v>
+        <v>0.833098</v>
       </c>
       <c r="H5">
-        <v>1.182769</v>
+        <v>2.499294</v>
       </c>
       <c r="I5">
-        <v>0.06891075275959026</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J5">
-        <v>0.06891075275959026</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01742633333333333</v>
+        <v>0.8526243333333333</v>
       </c>
       <c r="N5">
-        <v>0.052279</v>
+        <v>2.557873</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6030139463918032</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6030139463918032</v>
       </c>
       <c r="Q5">
-        <v>0.006870442283444443</v>
+        <v>0.7103196268513333</v>
       </c>
       <c r="R5">
-        <v>0.061833980551</v>
+        <v>6.392876641661999</v>
       </c>
       <c r="S5">
-        <v>0.06891075275959026</v>
+        <v>0.0751690151982715</v>
       </c>
       <c r="T5">
-        <v>0.06891075275959026</v>
+        <v>0.07516901519827149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05718066666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.171542</v>
+      </c>
+      <c r="I6">
+        <v>0.008555878853679219</v>
+      </c>
+      <c r="J6">
+        <v>0.008555878853679219</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5613136666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.683941</v>
+      </c>
+      <c r="O6">
+        <v>0.3969860536081968</v>
+      </c>
+      <c r="P6">
+        <v>0.3969860536081969</v>
+      </c>
+      <c r="Q6">
+        <v>0.03209628966911111</v>
+      </c>
+      <c r="R6">
+        <v>0.288866607022</v>
+      </c>
+      <c r="S6">
+        <v>0.003396564581271936</v>
+      </c>
+      <c r="T6">
+        <v>0.003396564581271936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.07165299999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.214959</v>
-      </c>
-      <c r="I6">
-        <v>0.01252398947085083</v>
-      </c>
-      <c r="J6">
-        <v>0.01252398947085083</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M6">
-        <v>0.01742633333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.052279</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.001248649062333333</v>
-      </c>
-      <c r="R6">
-        <v>0.011237841561</v>
-      </c>
-      <c r="S6">
-        <v>0.01252398947085083</v>
-      </c>
-      <c r="T6">
-        <v>0.01252398947085083</v>
+      <c r="G7">
+        <v>0.05718066666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.171542</v>
+      </c>
+      <c r="I7">
+        <v>0.008555878853679219</v>
+      </c>
+      <c r="J7">
+        <v>0.008555878853679219</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8526243333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.557873</v>
+      </c>
+      <c r="O7">
+        <v>0.6030139463918032</v>
+      </c>
+      <c r="P7">
+        <v>0.6030139463918032</v>
+      </c>
+      <c r="Q7">
+        <v>0.04875362779622222</v>
+      </c>
+      <c r="R7">
+        <v>0.438782650166</v>
+      </c>
+      <c r="S7">
+        <v>0.005159314272407282</v>
+      </c>
+      <c r="T7">
+        <v>0.005159314272407282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.448789</v>
+      </c>
+      <c r="H8">
+        <v>1.346367</v>
+      </c>
+      <c r="I8">
+        <v>0.0671517934068131</v>
+      </c>
+      <c r="J8">
+        <v>0.06715179340681308</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5613136666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.683941</v>
+      </c>
+      <c r="O8">
+        <v>0.3969860536081968</v>
+      </c>
+      <c r="P8">
+        <v>0.3969860536081969</v>
+      </c>
+      <c r="Q8">
+        <v>0.2519113991496666</v>
+      </c>
+      <c r="R8">
+        <v>2.267202592347</v>
+      </c>
+      <c r="S8">
+        <v>0.02665832545728366</v>
+      </c>
+      <c r="T8">
+        <v>0.02665832545728366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.448789</v>
+      </c>
+      <c r="H9">
+        <v>1.346367</v>
+      </c>
+      <c r="I9">
+        <v>0.0671517934068131</v>
+      </c>
+      <c r="J9">
+        <v>0.06715179340681308</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8526243333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.557873</v>
+      </c>
+      <c r="O9">
+        <v>0.6030139463918032</v>
+      </c>
+      <c r="P9">
+        <v>0.6030139463918032</v>
+      </c>
+      <c r="Q9">
+        <v>0.3826484219323334</v>
+      </c>
+      <c r="R9">
+        <v>3.443835797391</v>
+      </c>
+      <c r="S9">
+        <v>0.04049346794952943</v>
+      </c>
+      <c r="T9">
+        <v>0.04049346794952943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2916393333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.8749180000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.04363766549826466</v>
+      </c>
+      <c r="J10">
+        <v>0.04363766549826466</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5613136666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.683941</v>
+      </c>
+      <c r="O10">
+        <v>0.3969860536081968</v>
+      </c>
+      <c r="P10">
+        <v>0.3969860536081969</v>
+      </c>
+      <c r="Q10">
+        <v>0.1637011435375555</v>
+      </c>
+      <c r="R10">
+        <v>1.473310291838</v>
+      </c>
+      <c r="S10">
+        <v>0.01732354461483065</v>
+      </c>
+      <c r="T10">
+        <v>0.01732354461483066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2916393333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.8749180000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.04363766549826466</v>
+      </c>
+      <c r="J11">
+        <v>0.04363766549826466</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8526243333333333</v>
+      </c>
+      <c r="N11">
+        <v>2.557873</v>
+      </c>
+      <c r="O11">
+        <v>0.6030139463918032</v>
+      </c>
+      <c r="P11">
+        <v>0.6030139463918032</v>
+      </c>
+      <c r="Q11">
+        <v>0.2486587921571111</v>
+      </c>
+      <c r="R11">
+        <v>2.237929129414</v>
+      </c>
+      <c r="S11">
+        <v>0.026314120883434</v>
+      </c>
+      <c r="T11">
+        <v>0.026314120883434</v>
       </c>
     </row>
   </sheetData>
